--- a/Oct_1st_2nd.xlsx
+++ b/Oct_1st_2nd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\Pattern Recognition And Machine Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CBACCE-8CA9-42F0-8793-D04EFA701EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537D1EAA-0E0A-44AA-AD21-0A475DD093BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot table" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -172,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -188,7 +188,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,7 +493,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7C1757C-2FDF-4432-9B35-C9098314E739}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A7C1757C-2FDF-4432-9B35-C9098314E739}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:C37" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -981,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE2C48D-CB2A-4778-887B-92CFDFF50CD8}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1010,10 +1009,10 @@
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <v>4186</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2">
         <v>319</v>
       </c>
     </row>
@@ -1021,10 +1020,10 @@
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <v>4186</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3">
         <v>319</v>
       </c>
     </row>
@@ -1032,10 +1031,10 @@
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>3222</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4">
         <v>292</v>
       </c>
     </row>
@@ -1043,10 +1042,10 @@
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>953</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>25</v>
       </c>
     </row>
@@ -1054,10 +1053,10 @@
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>11</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>2</v>
       </c>
     </row>
@@ -1065,10 +1064,10 @@
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>2329</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>104</v>
       </c>
     </row>
@@ -1076,10 +1075,10 @@
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>1620</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
         <v>81</v>
       </c>
     </row>
@@ -1087,10 +1086,10 @@
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>1620</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
         <v>81</v>
       </c>
     </row>
@@ -1098,10 +1097,10 @@
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>709</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
         <v>23</v>
       </c>
     </row>
@@ -1109,10 +1108,10 @@
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>709</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
         <v>23</v>
       </c>
     </row>
@@ -1120,10 +1119,10 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>2323</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12">
         <v>111</v>
       </c>
     </row>
@@ -1131,10 +1130,10 @@
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <v>2323</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13">
         <v>111</v>
       </c>
     </row>
@@ -1142,10 +1141,10 @@
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14">
         <v>2323</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14">
         <v>111</v>
       </c>
     </row>
@@ -1153,10 +1152,10 @@
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15">
         <v>1678</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15">
         <v>99</v>
       </c>
     </row>
@@ -1164,10 +1163,10 @@
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16">
         <v>1678</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16">
         <v>99</v>
       </c>
     </row>
@@ -1175,10 +1174,10 @@
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17">
         <v>1447</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17">
         <v>90</v>
       </c>
     </row>
@@ -1186,10 +1185,10 @@
       <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18">
         <v>231</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18">
         <v>9</v>
       </c>
     </row>
@@ -1197,10 +1196,10 @@
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19">
         <v>779</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19">
         <v>9</v>
       </c>
     </row>
@@ -1208,10 +1207,10 @@
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20">
         <v>779</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20">
         <v>9</v>
       </c>
     </row>
@@ -1219,10 +1218,10 @@
       <c r="A21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21">
         <v>616</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21">
         <v>3</v>
       </c>
     </row>
@@ -1230,10 +1229,10 @@
       <c r="A22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22">
         <v>26</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22">
         <v>1</v>
       </c>
     </row>
@@ -1241,10 +1240,10 @@
       <c r="A23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23">
         <v>45</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23">
         <v>1</v>
       </c>
     </row>
@@ -1252,10 +1251,10 @@
       <c r="A24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24">
         <v>2</v>
       </c>
     </row>
@@ -1263,10 +1262,10 @@
       <c r="A25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25">
         <v>56</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25">
         <v>1</v>
       </c>
     </row>
@@ -1274,10 +1273,10 @@
       <c r="A26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26">
         <v>36</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26">
         <v>1</v>
       </c>
     </row>
@@ -1285,10 +1284,10 @@
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27">
         <v>227</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27">
         <v>7</v>
       </c>
     </row>
@@ -1296,10 +1295,10 @@
       <c r="A28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28">
         <v>227</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28">
         <v>7</v>
       </c>
     </row>
@@ -1307,10 +1306,10 @@
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29">
         <v>200</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29">
         <v>6</v>
       </c>
     </row>
@@ -1318,10 +1317,10 @@
       <c r="A30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30">
         <v>27</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30">
         <v>1</v>
       </c>
     </row>
@@ -1329,10 +1328,10 @@
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31">
         <v>14</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31">
         <v>2</v>
       </c>
     </row>
@@ -1340,10 +1339,10 @@
       <c r="A32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32">
         <v>14</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32">
         <v>2</v>
       </c>
     </row>
@@ -1351,10 +1350,10 @@
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33">
         <v>14</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33">
         <v>2</v>
       </c>
     </row>
@@ -1362,10 +1361,10 @@
       <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34">
         <v>7</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34">
         <v>1</v>
       </c>
     </row>
@@ -1373,10 +1372,10 @@
       <c r="A35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35">
         <v>7</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35">
         <v>1</v>
       </c>
     </row>
@@ -1384,10 +1383,10 @@
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36">
         <v>7</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36">
         <v>1</v>
       </c>
     </row>
@@ -1395,10 +1394,10 @@
       <c r="A37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37">
         <v>11543</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37">
         <v>652</v>
       </c>
     </row>
@@ -1411,7 +1410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
